--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C89BE3-A3D8-4D4F-B5B9-65CAE0145210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF80A44-EDE0-4D47-BF28-6D65468C7039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="5910" windowWidth="18645" windowHeight="9315" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,135 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>T-Mobile US</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>China Mobile</t>
+  </si>
+  <si>
+    <t>941 HK</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>NTT</t>
+  </si>
+  <si>
+    <t>9432 JP</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom</t>
+  </si>
+  <si>
+    <t>DTE GR</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>6758 JP</t>
+  </si>
+  <si>
+    <t>Charter</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>Crown Castle</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>KDDI</t>
+  </si>
+  <si>
+    <t>9433 JP</t>
+  </si>
+  <si>
+    <t>Naspers</t>
+  </si>
+  <si>
+    <t>NPN SJ</t>
+  </si>
+  <si>
+    <t>Etisalat</t>
+  </si>
+  <si>
+    <t>ETISALAT</t>
+  </si>
+  <si>
+    <t>America Movil</t>
+  </si>
+  <si>
+    <t>AMXL MM</t>
+  </si>
+  <si>
+    <t>Saudi Telecom</t>
+  </si>
+  <si>
+    <t>STC AB</t>
+  </si>
+  <si>
+    <t>RELX</t>
+  </si>
+  <si>
+    <t>REL LN</t>
+  </si>
+  <si>
+    <t>Moody's</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Thomson Reuters</t>
+  </si>
+  <si>
+    <t>TRI CN</t>
+  </si>
+  <si>
+    <t>Oriental Land</t>
+  </si>
+  <si>
+    <t>4661 JP</t>
+  </si>
+  <si>
+    <t>China Telecom</t>
+  </si>
+  <si>
+    <t>728 HK</t>
+  </si>
+  <si>
+    <t>Bharti Airtel</t>
+  </si>
+  <si>
+    <t>BHARTI IN</t>
   </si>
 </sst>
 </file>
@@ -415,18 +544,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +573,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -448,7 +584,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -456,12 +595,249 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>261.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF80A44-EDE0-4D47-BF28-6D65468C7039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D551B-C08F-48A3-BA85-22F4E37956F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="63915" yWindow="3765" windowWidth="22650" windowHeight="13440" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>BHARTI IN</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>BCE CN</t>
+  </si>
+  <si>
+    <t>East Money</t>
+  </si>
+  <si>
+    <t>300059 CH</t>
   </si>
 </sst>
 </file>
@@ -544,13 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,6 +852,28 @@
         <v>52</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D551B-C08F-48A3-BA85-22F4E37956F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7C8CE-5704-4563-A37E-FAAE9DB02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63915" yWindow="3765" windowWidth="22650" windowHeight="13440" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="63765" yWindow="6675" windowWidth="22155" windowHeight="14205" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>300059 CH</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>VOD LN</t>
+  </si>
+  <si>
+    <t>Universal Music</t>
+  </si>
+  <si>
+    <t>UMG NA</t>
+  </si>
+  <si>
+    <t>SBA Communications</t>
+  </si>
+  <si>
+    <t>SBAC</t>
+  </si>
+  <si>
+    <t>Warner Brothers Discovery</t>
+  </si>
+  <si>
+    <t>WBD</t>
+  </si>
+  <si>
+    <t>Chunghwa Telecom</t>
+  </si>
+  <si>
+    <t>2412 TT</t>
   </si>
 </sst>
 </file>
@@ -556,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -874,6 +904,61 @@
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7C8CE-5704-4563-A37E-FAAE9DB02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A9EE5-EAFE-4923-9EDC-9ABD947DE560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63765" yWindow="6675" windowWidth="22155" windowHeight="14205" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="53535" yWindow="855" windowWidth="24495" windowHeight="16830" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -236,6 +236,66 @@
   </si>
   <si>
     <t>2412 TT</t>
+  </si>
+  <si>
+    <t>Singapore Telecom</t>
+  </si>
+  <si>
+    <t>ST SP</t>
+  </si>
+  <si>
+    <t>Telstra</t>
+  </si>
+  <si>
+    <t>TLS AU</t>
+  </si>
+  <si>
+    <t>Telus</t>
+  </si>
+  <si>
+    <t>T CN</t>
+  </si>
+  <si>
+    <t>Cellnex</t>
+  </si>
+  <si>
+    <t>CLNX</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>ORA FP</t>
+  </si>
+  <si>
+    <t>Swisscom</t>
+  </si>
+  <si>
+    <t>SCMN SW</t>
+  </si>
+  <si>
+    <t>Telekom Indonesia</t>
+  </si>
+  <si>
+    <t>TLKM IJ</t>
+  </si>
+  <si>
+    <t>Telefonica</t>
+  </si>
+  <si>
+    <t>TEF SM</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer</t>
+  </si>
+  <si>
+    <t>WKL NA</t>
+  </si>
+  <si>
+    <t>Sirius XM</t>
+  </si>
+  <si>
+    <t>SIRI</t>
   </si>
 </sst>
 </file>
@@ -586,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,6 +1019,116 @@
         <v>66</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A9EE5-EAFE-4923-9EDC-9ABD947DE560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3B31B-C3AC-4575-99A9-25B0C53074B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53535" yWindow="855" windowWidth="24495" windowHeight="16830" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="23775" yWindow="3945" windowWidth="24495" windowHeight="15240" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -648,11 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,6 +685,9 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>121360</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -696,6 +699,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="E4">
+        <v>177400</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -718,6 +724,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="E6">
+        <v>182710</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -740,6 +749,9 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="E8">
+        <v>100000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -776,6 +788,9 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="E11">
+        <v>100000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -832,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -843,7 +858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -854,7 +869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -864,8 +879,11 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -875,8 +893,11 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -887,7 +908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -898,7 +919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -909,7 +930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -920,7 +941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -930,8 +951,12 @@
       <c r="C25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>329060/6</f>
+        <v>54843.333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -941,8 +966,11 @@
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -952,8 +980,11 @@
       <c r="C27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -964,7 +995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -974,8 +1005,11 @@
       <c r="C29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -986,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1074,11 @@
       <c r="C35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1051,8 +1088,11 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1073,8 +1113,11 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +1127,11 @@
       <c r="C39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3B31B-C3AC-4575-99A9-25B0C53074B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9005E7C-8FCA-4225-8306-3E46F1298F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23775" yWindow="3945" windowWidth="24495" windowHeight="15240" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>SIRI</t>
+  </si>
+  <si>
+    <t>Costar</t>
+  </si>
+  <si>
+    <t>CSGP</t>
+  </si>
+  <si>
+    <t>Equifax</t>
+  </si>
+  <si>
+    <t>EFX</t>
   </si>
 </sst>
 </file>
@@ -646,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,6 +1187,28 @@
         <v>86</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9005E7C-8FCA-4225-8306-3E46F1298F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37EFF0-7DCC-46CC-A0B0-BAF3818FD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="17265" yWindow="120" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Telecom" sheetId="1" r:id="rId1"/>
+    <sheet name="Media" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -308,16 +313,41 @@
   </si>
   <si>
     <t>EFX</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Q322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -339,13 +369,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,6 +403,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>7127</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>6387</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>133751</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>4199.8817447000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>3165</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>147907</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,205 +764,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>177400</v>
+      </c>
+      <c r="F3" s="3">
+        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <v>-144742</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>322142</v>
+      </c>
+      <c r="H3" s="6">
+        <f>+[2]Main!$M$3</f>
+        <v>4199.8817447000001</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>121360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>177400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f>+D4*H4</f>
+        <v>130495.37</v>
+      </c>
+      <c r="F4" s="3">
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <v>-127364</v>
+      </c>
+      <c r="G4" s="3">
+        <f>+E4-F4</f>
+        <v>257859.37</v>
+      </c>
+      <c r="H4" s="6">
+        <f>+[1]Main!$K$3</f>
+        <v>7127</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>182710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>182710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>261.19</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>261.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>55000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -864,10 +1042,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,13 +1067,14 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>55000</v>
+        <v>50</v>
+      </c>
+      <c r="E19" s="1">
+        <f>329060/6</f>
+        <v>54843.333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,12 +1082,12 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1">
         <v>50000</v>
       </c>
     </row>
@@ -914,10 +1096,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -936,10 +1121,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="1">
+        <v>35000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -958,14 +1146,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <f>329060/6</f>
-        <v>54843.333333333336</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,13 +1157,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>50000</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,13 +1168,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27">
-        <v>44000</v>
+        <v>70</v>
+      </c>
+      <c r="E27" s="1">
+        <v>31000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1001,10 +1182,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="E28" s="1">
+        <v>31000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,13 +1196,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>35000</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,10 +1207,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="E30" s="1">
+        <v>27000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,10 +1221,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,166 +1235,265 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
+  <dimension ref="A2:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C14" t="s">
         <v>90</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37EFF0-7DCC-46CC-A0B0-BAF3818FD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0695C73-53FB-4188-A495-DD3B528363DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="120" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="10275" yWindow="315" windowWidth="33330" windowHeight="20340" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>RCI/B CN</t>
+  </si>
+  <si>
+    <t>China Tower</t>
+  </si>
+  <si>
+    <t>788 HK</t>
   </si>
 </sst>
 </file>
@@ -415,6 +427,37 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="M3">
+            <v>4199.8817447000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>3165</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>147907</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="K3">
             <v>7127</v>
           </cell>
@@ -430,38 +473,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>4199.8817447000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>3165</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>147907</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -764,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,7 +840,7 @@
         <v>177400</v>
       </c>
       <c r="F3" s="3">
-        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
         <v>-144742</v>
       </c>
       <c r="G3" s="3">
@@ -836,7 +848,7 @@
         <v>322142</v>
       </c>
       <c r="H3" s="6">
-        <f>+[2]Main!$M$3</f>
+        <f>+[1]Main!$M$3</f>
         <v>4199.8817447000001</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -864,7 +876,7 @@
         <v>130495.37</v>
       </c>
       <c r="F4" s="3">
-        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>-127364</v>
       </c>
       <c r="G4" s="3">
@@ -872,7 +884,7 @@
         <v>257859.37</v>
       </c>
       <c r="H4" s="6">
-        <f>+[1]Main!$K$3</f>
+        <f>+[2]Main!$K$3</f>
         <v>7127</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1061,6 +1073,7 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1072,7 +1085,7 @@
       <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <f>329060/6</f>
         <v>54843.333333333336</v>
       </c>
@@ -1087,7 +1100,7 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>50000</v>
       </c>
     </row>
@@ -1101,7 +1114,7 @@
       <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>44000</v>
       </c>
     </row>
@@ -1115,6 +1128,7 @@
       <c r="C22" t="s">
         <v>56</v>
       </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1126,7 +1140,7 @@
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>35000</v>
       </c>
     </row>
@@ -1140,6 +1154,7 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1151,6 +1166,7 @@
       <c r="C25" t="s">
         <v>66</v>
       </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1162,6 +1178,7 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1173,7 +1190,7 @@
       <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>31000</v>
       </c>
     </row>
@@ -1187,7 +1204,7 @@
       <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>31000</v>
       </c>
     </row>
@@ -1201,6 +1218,7 @@
       <c r="C29" t="s">
         <v>74</v>
       </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1212,7 +1230,7 @@
       <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>27000</v>
       </c>
     </row>
@@ -1226,7 +1244,7 @@
       <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>26000</v>
       </c>
     </row>
@@ -1240,6 +1258,7 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1250,6 +1269,28 @@
       </c>
       <c r="C33" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0695C73-53FB-4188-A495-DD3B528363DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB1058-65C6-45B8-A55E-70521C15E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="315" windowWidth="33330" windowHeight="20340" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="7680" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -779,10 +779,10 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB1058-65C6-45B8-A55E-70521C15E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93A804-C002-4BFF-B801-60D2B5669DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="20925" yWindow="1800" windowWidth="29115" windowHeight="17205" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -782,13 +782,14 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1311,7 +1312,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93A804-C002-4BFF-B801-60D2B5669DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7A82A-51F5-A340-AC7E-7A4CB0C58176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20925" yWindow="1800" windowWidth="29115" windowHeight="17205" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-40080" yWindow="-15480" windowWidth="21020" windowHeight="13740" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -626,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,20 +782,20 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="7" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +859,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -895,7 +895,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +909,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -935,7 +935,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -976,7 +976,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1312,16 +1312,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7A82A-51F5-A340-AC7E-7A4CB0C58176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08900C6A-182E-4F6C-A16C-FD26206C7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40080" yWindow="-15480" windowWidth="21020" windowHeight="13740" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-25845" yWindow="915" windowWidth="25155" windowHeight="18300" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -343,12 +344,18 @@
   </si>
   <si>
     <t>788 HK</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -385,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -399,13 +406,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0A740744-FEF5-4BBC-A2F1-EFB1FD74FA85}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,6 +480,40 @@
         <row r="6">
           <cell r="K6">
             <v>133751</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>1813.5873799999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>10586</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>47584</v>
           </cell>
         </row>
       </sheetData>
@@ -778,24 +822,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="7" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +868,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +903,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -895,7 +939,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +953,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -921,7 +965,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -935,7 +979,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -950,7 +994,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -962,7 +1006,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -976,7 +1020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -988,7 +1032,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1044,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1056,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1068,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1080,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1094,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1108,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1120,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1135,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1149,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1163,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1175,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1189,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1201,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1213,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1225,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1239,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1253,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1265,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1279,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1293,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1305,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1327,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1308,20 +1352,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1350,18 +1395,43 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>85.67</v>
+      </c>
+      <c r="E3" s="6">
+        <f>+D3*H3</f>
+        <v>155370.0308446</v>
+      </c>
+      <c r="F3" s="6">
+        <f>+[3]Main!$I$5-[3]Main!$I$6</f>
+        <v>-36998</v>
+      </c>
+      <c r="G3" s="6">
+        <f>+E3-F3</f>
+        <v>192368.0308446</v>
+      </c>
+      <c r="H3" s="6">
+        <f>+[3]Main!$I$3</f>
+        <v>1813.5873799999999</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1447,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1463,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1479,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1495,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1511,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1527,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1543,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1489,7 +1559,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1575,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1591,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1538,6 +1608,9 @@
       <c r="I14" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3BD482F3-ED82-4C36-A975-0E6BF54CD038}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08900C6A-182E-4F6C-A16C-FD26206C7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC85A49-12B1-4CAE-A039-2641EEE1C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="915" windowWidth="25155" windowHeight="18300" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-44070" yWindow="1950" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -347,6 +348,9 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
   </si>
 </sst>
 </file>
@@ -354,7 +358,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -406,7 +410,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,6 +518,40 @@
         <row r="6">
           <cell r="I6">
             <v>47584</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>2450.3133979999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>2976</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>42578</v>
           </cell>
         </row>
       </sheetData>
@@ -1356,7 +1394,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1483,17 +1521,37 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="D7" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+D7*H7</f>
+        <v>19479.991514099998</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+[4]Main!$I$5-[4]Main!$I$6</f>
+        <v>-39602</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+E7-F7</f>
+        <v>59081.991514099995</v>
+      </c>
+      <c r="H7" s="6">
+        <f>+[4]Main!$I$3</f>
+        <v>2450.3133979999998</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45527</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1610,6 +1668,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3BD482F3-ED82-4C36-A975-0E6BF54CD038}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{2D423A86-FC34-4029-85BD-17EE8F11BCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC85A49-12B1-4CAE-A039-2641EEE1C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED2914-70C4-40C0-9A4F-8027459EBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44070" yWindow="1950" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -351,6 +352,12 @@
   </si>
   <si>
     <t>Q124</t>
+  </si>
+  <si>
+    <t>AST Mobile</t>
+  </si>
+  <si>
+    <t>ASTS</t>
   </si>
 </sst>
 </file>
@@ -396,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -411,6 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,6 +560,40 @@
         <row r="6">
           <cell r="I6">
             <v>42578</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>269.39300000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>285.08499999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>199.804</v>
           </cell>
         </row>
       </sheetData>
@@ -858,13 +900,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1385,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1374,15 +1416,43 @@
       </c>
       <c r="C35" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29.62</v>
+      </c>
+      <c r="E36" s="3">
+        <f>+D36*H36</f>
+        <v>7979.4206600000007</v>
+      </c>
+      <c r="F36" s="3">
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <v>85.280999999999977</v>
+      </c>
+      <c r="G36" s="3">
+        <f>+E36-F36</f>
+        <v>7894.1396600000007</v>
+      </c>
+      <c r="H36" s="6">
+        <f>+[5]Main!$M$3</f>
+        <v>269.39300000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1390,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED2914-70C4-40C0-9A4F-8027459EBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66786C56-2194-5245-B2D0-C5F3171E88E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="12700" yWindow="-19100" windowWidth="23460" windowHeight="17360" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -514,6 +515,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="M3">
+            <v>269.39300000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>285.08499999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>199.804</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="I3">
             <v>1813.5873799999999</v>
           </cell>
@@ -535,7 +570,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -569,7 +604,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -582,22 +617,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>269.39300000000003</v>
+          <cell r="G3">
+            <v>3872.5016230000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>285.08499999999998</v>
+          <cell r="G5">
+            <v>15236</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>199.804</v>
+          <cell r="G6">
+            <v>98128</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -903,23 +938,23 @@
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="7" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -948,7 +983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -983,7 +1018,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1033,19 +1068,43 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>39.25</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6*H6</f>
+        <v>151995.68870274999</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
+        <v>-82892</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
+        <v>234887.68870274999</v>
+      </c>
+      <c r="H6" s="6">
+        <f>+[6]Main!$G$3</f>
+        <v>3872.5016230000001</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1118,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1133,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1145,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1159,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1171,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1183,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1195,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1207,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1219,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1233,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1247,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1259,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1274,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1288,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1302,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1314,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1328,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1340,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1352,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1364,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1378,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1333,7 +1392,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1404,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1418,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1432,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1444,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -1433,7 +1492,7 @@
         <v>7979.4206600000007</v>
       </c>
       <c r="F36" s="3">
-        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
         <v>85.280999999999977</v>
       </c>
       <c r="G36" s="3">
@@ -1441,7 +1500,7 @@
         <v>7894.1396600000007</v>
       </c>
       <c r="H36" s="6">
-        <f>+[5]Main!$M$3</f>
+        <f>+[3]Main!$M$3</f>
         <v>269.39300000000003</v>
       </c>
     </row>
@@ -1450,9 +1509,10 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
     <hyperlink ref="B36" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{CD009065-886A-C349-ACCA-1EA1E2004D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1467,14 +1527,14 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1581,7 @@
         <v>155370.0308446</v>
       </c>
       <c r="F3" s="6">
-        <f>+[3]Main!$I$5-[3]Main!$I$6</f>
+        <f>+[4]Main!$I$5-[4]Main!$I$6</f>
         <v>-36998</v>
       </c>
       <c r="G3" s="6">
@@ -1529,7 +1589,7 @@
         <v>192368.0308446</v>
       </c>
       <c r="H3" s="6">
-        <f>+[3]Main!$I$3</f>
+        <f>+[4]Main!$I$3</f>
         <v>1813.5873799999999</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1539,7 +1599,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1615,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1631,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1647,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1665,7 @@
         <v>19479.991514099998</v>
       </c>
       <c r="F7" s="3">
-        <f>+[4]Main!$I$5-[4]Main!$I$6</f>
+        <f>+[5]Main!$I$5-[5]Main!$I$6</f>
         <v>-39602</v>
       </c>
       <c r="G7" s="3">
@@ -1613,7 +1673,7 @@
         <v>59081.991514099995</v>
       </c>
       <c r="H7" s="6">
-        <f>+[4]Main!$I$3</f>
+        <f>+[5]Main!$I$3</f>
         <v>2450.3133979999998</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1623,7 +1683,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1699,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1715,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1731,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1747,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1763,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1779,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66786C56-2194-5245-B2D0-C5F3171E88E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC4405-E141-49D3-A1CF-FD9A3015F0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="-19100" windowWidth="23460" windowHeight="17360" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>ASTS</t>
+  </si>
+  <si>
+    <t>Lumen</t>
+  </si>
+  <si>
+    <t>LUMN</t>
   </si>
 </sst>
 </file>
@@ -515,6 +521,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="G3">
+            <v>3872.5016230000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>15236</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>98128</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="M3">
             <v>269.39300000000003</v>
           </cell>
@@ -536,7 +576,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -570,7 +610,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -599,40 +639,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="G3">
-            <v>3872.5016230000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>15236</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>98128</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -935,26 +941,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="7" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="7" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -983,7 +989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>151995.68870274999</v>
       </c>
       <c r="F6" s="3">
-        <f>+[6]Main!$G$5-[6]Main!$G$6</f>
+        <f>+[3]Main!$G$5-[3]Main!$G$6</f>
         <v>-82892</v>
       </c>
       <c r="G6" s="3">
@@ -1094,7 +1100,7 @@
         <v>234887.68870274999</v>
       </c>
       <c r="H6" s="6">
-        <f>+[6]Main!$G$3</f>
+        <f>+[3]Main!$G$3</f>
         <v>3872.5016230000001</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1104,7 +1110,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1139,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1151,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1177,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1189,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1201,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1213,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1346,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1370,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1450,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>7979.4206600000007</v>
       </c>
       <c r="F36" s="3">
-        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>85.280999999999977</v>
       </c>
       <c r="G36" s="3">
@@ -1500,8 +1506,19 @@
         <v>7894.1396600000007</v>
       </c>
       <c r="H36" s="6">
-        <f>+[3]Main!$M$3</f>
+        <f>+[4]Main!$M$3</f>
         <v>269.39300000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.21</v>
       </c>
     </row>
   </sheetData>
@@ -1527,14 +1544,14 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1598,7 @@
         <v>155370.0308446</v>
       </c>
       <c r="F3" s="6">
-        <f>+[4]Main!$I$5-[4]Main!$I$6</f>
+        <f>+[5]Main!$I$5-[5]Main!$I$6</f>
         <v>-36998</v>
       </c>
       <c r="G3" s="6">
@@ -1589,7 +1606,7 @@
         <v>192368.0308446</v>
       </c>
       <c r="H3" s="6">
-        <f>+[4]Main!$I$3</f>
+        <f>+[5]Main!$I$3</f>
         <v>1813.5873799999999</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1599,7 +1616,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1632,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1648,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1664,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1682,7 @@
         <v>19479.991514099998</v>
       </c>
       <c r="F7" s="3">
-        <f>+[5]Main!$I$5-[5]Main!$I$6</f>
+        <f>+[6]Main!$I$5-[6]Main!$I$6</f>
         <v>-39602</v>
       </c>
       <c r="G7" s="3">
@@ -1673,7 +1690,7 @@
         <v>59081.991514099995</v>
       </c>
       <c r="H7" s="6">
-        <f>+[5]Main!$I$3</f>
+        <f>+[6]Main!$I$3</f>
         <v>2450.3133979999998</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1683,7 +1700,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1716,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1732,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1748,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1764,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1780,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1796,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC4405-E141-49D3-A1CF-FD9A3015F0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1965E6E-AA55-4F40-9B91-9BB7676BAECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -389,12 +389,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -410,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,6 +432,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -944,10 +951,10 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -990,7 +997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1025,7 +1032,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1061,7 +1068,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1075,7 +1082,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1111,7 +1118,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -1125,7 +1132,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -1140,7 +1147,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -1152,7 +1159,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1166,7 +1173,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1190,7 +1197,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -1266,7 +1273,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
@@ -1281,7 +1288,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -1541,7 +1548,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1588,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1617,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1633,7 +1640,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1701,7 +1708,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -1733,7 +1740,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1965E6E-AA55-4F40-9B91-9BB7676BAECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06992CB2-E9A1-4EF8-96F0-2A4D9BD9A2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>America Movil</t>
   </si>
   <si>
-    <t>AMXL MM</t>
-  </si>
-  <si>
     <t>Saudi Telecom</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>LUMN</t>
+  </si>
+  <si>
+    <t>AMXB MM</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -951,23 +951,23 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="7" width="9.1796875" style="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -981,22 +981,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>4199.8817447000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="4">
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1061,13 +1061,13 @@
         <v>7127</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="4">
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1111,13 +1111,13 @@
         <v>3872.5016230000001</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4">
         <v>45552</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1184,8 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1208,8 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1232,270 +1232,270 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="3">
         <f>329060/6</f>
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
       </c>
       <c r="E27" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
       </c>
       <c r="E31" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D36" s="1">
         <v>29.62</v>
@@ -1517,12 +1517,12 @@
         <v>269.39300000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
         <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
       </c>
       <c r="D37" s="1">
         <v>6.21</v>
@@ -1548,17 +1548,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1572,22 +1572,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1617,13 +1617,13 @@
         <v>1813.5873799999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" s="7">
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1655,15 +1655,15 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1671,15 +1671,15 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="1">
         <v>7.95</v>
@@ -1701,21 +1701,21 @@
         <v>2450.3133979999998</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="7">
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
@@ -1723,15 +1723,15 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1739,15 +1739,15 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -1755,15 +1755,15 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1771,15 +1771,15 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1787,15 +1787,15 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1803,15 +1803,15 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06992CB2-E9A1-4EF8-96F0-2A4D9BD9A2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAEA2A-58B0-48E8-BD0D-6EE9C01AC832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
@@ -1548,7 +1548,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1756,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAEA2A-58B0-48E8-BD0D-6EE9C01AC832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3ADB97-9902-4045-BAD7-79BF993CFD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -151,12 +151,6 @@
     <t>NPN SJ</t>
   </si>
   <si>
-    <t>Etisalat</t>
-  </si>
-  <si>
-    <t>ETISALAT</t>
-  </si>
-  <si>
     <t>America Movil</t>
   </si>
   <si>
@@ -365,6 +359,24 @@
   </si>
   <si>
     <t>AMXB MM</t>
+  </si>
+  <si>
+    <t>Emirates Telecom (Etisalat)</t>
+  </si>
+  <si>
+    <t>EAND UH</t>
+  </si>
+  <si>
+    <t>Gartner</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Live Nation</t>
+  </si>
+  <si>
+    <t>LYV</t>
   </si>
 </sst>
 </file>
@@ -950,11 +962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
   <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -981,19 +993,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1025,7 +1037,7 @@
         <v>4199.8817447000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J3" s="4">
         <v>44921</v>
@@ -1061,7 +1073,7 @@
         <v>7127</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="4">
         <v>44921</v>
@@ -1111,7 +1123,7 @@
         <v>3872.5016230000001</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="4">
         <v>45552</v>
@@ -1221,14 +1233,14 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1237,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="3">
         <v>55000</v>
@@ -1251,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3">
         <v>50000</v>
@@ -1265,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1277,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3">
         <f>329060/6</f>
@@ -1292,10 +1304,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3">
         <v>50000</v>
@@ -1306,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3">
         <v>44000</v>
@@ -1320,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1332,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3">
         <v>35000</v>
@@ -1346,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1358,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1370,10 +1382,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1382,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3">
         <v>31000</v>
@@ -1396,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3">
         <v>31000</v>
@@ -1410,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1422,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3">
         <v>27000</v>
@@ -1436,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3">
         <v>26000</v>
@@ -1450,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1462,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1473,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1484,18 +1496,18 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1">
         <v>29.62</v>
@@ -1519,10 +1531,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
         <v>6.21</v>
@@ -1542,13 +1554,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1572,19 +1584,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1617,7 +1629,7 @@
         <v>1813.5873799999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="7">
         <v>45517</v>
@@ -1660,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1676,10 +1688,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>7.95</v>
@@ -1701,7 +1713,7 @@
         <v>2450.3133979999998</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="7">
         <v>45527</v>
@@ -1712,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
@@ -1728,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1744,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -1760,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1772,14 +1784,14 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1792,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1808,16 +1820,43 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3ADB97-9902-4045-BAD7-79BF993CFD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B2C5E-368C-4F26-9298-094365706EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>LYV</t>
+  </si>
+  <si>
+    <t>China Unicom</t>
+  </si>
+  <si>
+    <t>762 HK</t>
   </si>
 </sst>
 </file>
@@ -960,13 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1314,104 +1320,102 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3">
-        <v>44000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44000</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3">
-        <v>35000</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35000</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="3">
-        <v>31000</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3">
         <v>31000</v>
@@ -1422,39 +1426,39 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E29" s="3">
+        <v>31000</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>27000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="3">
-        <v>26000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,33 +1466,36 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26000</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,47 +1503,58 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>29.62</v>
       </c>
-      <c r="E36" s="3">
-        <f>+D36*H36</f>
+      <c r="E37" s="3">
+        <f>+D37*H37</f>
         <v>7979.4206600000007</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>85.280999999999977</v>
       </c>
-      <c r="G36" s="3">
-        <f>+E36-F36</f>
+      <c r="G37" s="3">
+        <f>+E37-F37</f>
         <v>7894.1396600000007</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H37" s="6">
         <f>+[4]Main!$M$3</f>
         <v>269.39300000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>6.21</v>
       </c>
     </row>
@@ -1544,7 +1562,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{CD009065-886A-C349-ACCA-1EA1E2004D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1556,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B2C5E-368C-4F26-9298-094365706EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7DFCF-3C8F-4920-B8B3-574908288F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -383,6 +383,18 @@
   </si>
   <si>
     <t>762 HK</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>TKO Group</t>
+  </si>
+  <si>
+    <t>Publicis</t>
+  </si>
+  <si>
+    <t>PUB PA</t>
   </si>
 </sst>
 </file>
@@ -968,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1396,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
@@ -1408,7 +1420,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
@@ -1462,7 +1474,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
@@ -1572,13 +1584,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1714,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1754,7 +1766,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -1834,7 +1846,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -1874,6 +1886,28 @@
       </c>
       <c r="C16" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7DFCF-3C8F-4920-B8B3-574908288F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC0187-4DCA-43D3-B6C9-A12EAA285A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" activeTab="1" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>PUB PA</t>
+  </si>
+  <si>
+    <t>Advanced Info Service</t>
+  </si>
+  <si>
+    <t>ADVANC  TB</t>
   </si>
 </sst>
 </file>
@@ -978,26 +984,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="7" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +1182,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1194,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1220,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1244,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1256,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1268,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1308,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1349,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1375,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1401,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1425,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1465,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
@@ -1487,86 +1493,98 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
         <v>94</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>29.62</v>
       </c>
-      <c r="E37" s="3">
-        <f>+D37*H37</f>
+      <c r="E38" s="3">
+        <f>+D38*H38</f>
         <v>7979.4206600000007</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>85.280999999999977</v>
       </c>
-      <c r="G37" s="3">
-        <f>+E37-F37</f>
+      <c r="G38" s="3">
+        <f>+E38-F38</f>
         <v>7894.1396600000007</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <f>+[4]Main!$M$3</f>
         <v>269.39300000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>6.21</v>
       </c>
     </row>
@@ -1574,7 +1592,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
-    <hyperlink ref="B37" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
+    <hyperlink ref="B38" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{CD009065-886A-C349-ACCA-1EA1E2004D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,21 +1604,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1647,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1699,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1715,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1731,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1783,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1799,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1815,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1813,7 +1831,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1829,7 +1847,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1863,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +1879,7 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +1895,7 @@
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC0187-4DCA-43D3-B6C9-A12EAA285A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF173060-5DBA-43C5-B880-F8396EAC7109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Cellnex</t>
   </si>
   <si>
-    <t>CLNX</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -401,6 +398,21 @@
   </si>
   <si>
     <t>ADVANC  TB</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>FOXA</t>
+  </si>
+  <si>
+    <t>600050 CH</t>
+  </si>
+  <si>
+    <t>China Unicom Hong Kong</t>
+  </si>
+  <si>
+    <t>CLNX SM</t>
   </si>
 </sst>
 </file>
@@ -500,17 +512,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>4199.8817447000001</v>
+            <v>4223</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3165</v>
+            <v>4194</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>147907</v>
+            <v>144014</v>
           </cell>
         </row>
       </sheetData>
@@ -565,7 +577,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="G3">
-            <v>3872.5016230000001</v>
+            <v>3771.5782260000001</v>
           </cell>
         </row>
         <row r="5">
@@ -984,26 +996,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA329616-3044-4C3A-81FE-407310D76F3B}">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="7" width="9.1796875" style="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1017,22 +1029,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1050,24 +1062,24 @@
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$M$5-[1]Main!$M$6</f>
-        <v>-144742</v>
+        <v>-139820</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>322142</v>
+        <v>317220</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$M$3</f>
-        <v>4199.8817447000001</v>
+        <v>4223</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="4">
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1097,13 +1109,13 @@
         <v>7127</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="4">
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1144,7 @@
       </c>
       <c r="E6" s="3">
         <f>+D6*H6</f>
-        <v>151995.68870274999</v>
+        <v>148034.44537050001</v>
       </c>
       <c r="F6" s="3">
         <f>+[3]Main!$G$5-[3]Main!$G$6</f>
@@ -1140,20 +1152,20 @@
       </c>
       <c r="G6" s="3">
         <f>+E6-F6</f>
-        <v>234887.68870274999</v>
+        <v>230926.44537050001</v>
       </c>
       <c r="H6" s="6">
         <f>+[3]Main!$G$3</f>
-        <v>3872.5016230000001</v>
+        <v>3771.5782260000001</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="4">
         <v>45552</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1194,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1206,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1232,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1244,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1256,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1256,19 +1268,19 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1276,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1320,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1337,254 +1349,268 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" s="3">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
       </c>
       <c r="E29" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="3">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E32" s="3">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="3">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E33" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>29.62</v>
       </c>
-      <c r="E38" s="3">
-        <f>+D38*H38</f>
+      <c r="E39" s="3">
+        <f>+D39*H39</f>
         <v>7979.4206600000007</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>85.280999999999977</v>
       </c>
-      <c r="G38" s="3">
-        <f>+E38-F38</f>
+      <c r="G39" s="3">
+        <f>+E39-F39</f>
         <v>7894.1396600000007</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <f>+[4]Main!$M$3</f>
         <v>269.39300000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>6.21</v>
       </c>
     </row>
@@ -1592,7 +1618,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{6F44E6F2-3DED-4926-9603-8722528AD3D2}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B843EA85-49F5-4BAD-9729-D1BAD94922F4}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
+    <hyperlink ref="B39" r:id="rId3" xr:uid="{F4A92607-2298-4270-BF28-0DB179AFE978}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{CD009065-886A-C349-ACCA-1EA1E2004D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,23 +1628,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35B77C-6332-4B23-BB6A-D374CD702B58}">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1632,22 +1658,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1677,13 +1703,13 @@
         <v>1813.5873799999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="7">
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1725,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1741,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1757,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1761,13 +1787,13 @@
         <v>2450.3133979999998</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="7">
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1809,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1825,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1815,15 +1841,15 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1831,15 +1857,15 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1847,15 +1873,15 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1863,15 +1889,15 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1879,15 +1905,15 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1895,37 +1921,48 @@
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
-        <v>116</v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF173060-5DBA-43C5-B880-F8396EAC7109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348632F3-30E2-4C24-9B75-D8B4ED4396B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="40980" yWindow="2660" windowWidth="22310" windowHeight="13390" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -999,23 +999,23 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="7" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
@@ -1463,8 +1463,8 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
@@ -1477,7 +1477,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>269.39300000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -1637,14 +1637,14 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>

--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348632F3-30E2-4C24-9B75-D8B4ED4396B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A9940-7D17-4250-BBCF-A5EACA07D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="2660" windowWidth="22310" windowHeight="13390" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
